--- a/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC73B8F-658F-4AEE-8072-37E2FA1DCE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA60F418-5FDB-4A58-B900-F40FFB65AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{497B54A8-8E1A-4883-A729-EC2867405769}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F7CB8E-54FF-45BE-9306-80CF9049BBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,58 +77,58 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1321 +140,1315 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6A7A6-6C00-4F2B-8478-9B85A0994F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D75B6-5F07-4C34-869A-6D5696F8B588}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2333,10 +2327,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2345,13 @@
         <v>618175</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>630</v>
@@ -2366,13 +2360,13 @@
         <v>658508</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1225</v>
@@ -2381,13 +2375,13 @@
         <v>1276682</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2437,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2455,13 +2449,13 @@
         <v>11665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -2470,13 +2464,13 @@
         <v>28716</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>39</v>
@@ -2485,13 +2479,13 @@
         <v>40381</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2500,13 @@
         <v>507482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -2646,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2655,13 @@
         <v>371009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>373</v>
@@ -2676,13 +2670,13 @@
         <v>381316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -2691,13 +2685,13 @@
         <v>752325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2747,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2765,13 +2759,13 @@
         <v>19661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -2780,13 +2774,13 @@
         <v>47626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -2795,13 +2789,13 @@
         <v>67287</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2810,13 @@
         <v>482805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>615</v>
@@ -2831,13 +2825,13 @@
         <v>629216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1116</v>
@@ -2846,13 +2840,13 @@
         <v>1112021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2914,13 @@
         <v>89804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -2935,13 +2929,13 @@
         <v>153804</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -2950,13 +2944,13 @@
         <v>243608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,16 +2962,16 @@
         <v>3124</v>
       </c>
       <c r="D23" s="7">
-        <v>3186739</v>
+        <v>3186740</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>3148</v>
@@ -2986,28 +2980,28 @@
         <v>3225394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>6272</v>
       </c>
       <c r="N23" s="7">
-        <v>6412133</v>
+        <v>6412132</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3013,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3049,7 +3043,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3063,7 +3057,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BA59E4-3C64-4262-8803-8FD7893D2A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E8F9DC-0F16-42E7-A894-2CEC6DBC5617}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3203,13 @@
         <v>5620</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3224,13 +3218,13 @@
         <v>6922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3239,13 +3233,13 @@
         <v>12542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3254,13 @@
         <v>448526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3275,13 +3269,13 @@
         <v>423308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>854</v>
@@ -3290,13 +3284,13 @@
         <v>871834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3358,13 @@
         <v>9324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3379,13 +3373,13 @@
         <v>18550</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3394,13 +3388,13 @@
         <v>27873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3409,13 @@
         <v>677763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>553</v>
@@ -3522,10 +3516,10 @@
         <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3534,10 +3528,10 @@
         <v>33707</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>178</v>
@@ -3576,7 +3570,7 @@
         <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -3585,13 +3579,13 @@
         <v>677143</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3662,7 +3656,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3689,13 +3683,13 @@
         <v>33075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3704,13 +3698,13 @@
         <v>51610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3719,13 @@
         <v>596082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3740,13 +3734,13 @@
         <v>583124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -3755,13 +3749,13 @@
         <v>1179206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3823,13 @@
         <v>14095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -3844,13 +3838,13 @@
         <v>25075</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3859,13 +3853,13 @@
         <v>39170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3874,13 @@
         <v>415334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>382</v>
@@ -3895,13 +3889,13 @@
         <v>422725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -3910,13 +3904,13 @@
         <v>838059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3966,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3984,13 +3978,13 @@
         <v>26051</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4038,10 +4032,10 @@
         <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -4050,13 +4044,13 @@
         <v>684741</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>1117</v>
@@ -4065,13 +4059,13 @@
         <v>1218326</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4133,13 @@
         <v>105218</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -4154,13 +4148,13 @@
         <v>175563</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>266</v>
@@ -4169,13 +4163,13 @@
         <v>280781</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>3321561</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>3131</v>
@@ -4205,13 +4199,13 @@
         <v>3382746</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M23" s="7">
         <v>6241</v>
@@ -4220,13 +4214,13 @@
         <v>6704307</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4276,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2ED784-268B-4D22-927C-7FD8720BAC8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF321E1-07B6-40FA-832A-EF1E9DDA584B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4422,13 @@
         <v>10682</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4443,13 +4437,13 @@
         <v>16008</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4458,13 +4452,13 @@
         <v>26690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>408781</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4494,13 +4488,13 @@
         <v>379747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>772</v>
@@ -4509,13 +4503,13 @@
         <v>788528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4577,13 @@
         <v>13657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>275</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4598,13 +4592,13 @@
         <v>19470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4613,13 +4607,13 @@
         <v>33127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4628,13 @@
         <v>576839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -4649,13 +4643,13 @@
         <v>544074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>1113</v>
@@ -4664,13 +4658,13 @@
         <v>1120913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4732,13 @@
         <v>25290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4753,13 +4747,13 @@
         <v>52634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4768,13 +4762,13 @@
         <v>77924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4783,13 @@
         <v>643807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="H11" s="7">
         <v>610</v>
@@ -4804,13 +4798,13 @@
         <v>608752</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -4819,13 +4813,13 @@
         <v>1252559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4875,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4893,13 +4887,13 @@
         <v>34082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -4908,13 +4902,13 @@
         <v>79496</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4923,13 +4917,13 @@
         <v>113578</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4938,13 @@
         <v>611966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
@@ -4959,13 +4953,13 @@
         <v>569581</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M14" s="7">
         <v>1078</v>
@@ -4974,13 +4968,13 @@
         <v>1181547</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5042,13 @@
         <v>33888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -5063,13 +5057,13 @@
         <v>93228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5078,13 +5072,13 @@
         <v>127115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5093,13 @@
         <v>444030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>350</v>
@@ -5114,13 +5108,13 @@
         <v>403621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -5129,13 +5123,13 @@
         <v>847652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,7 +5185,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5203,13 +5197,13 @@
         <v>35575</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -5218,13 +5212,13 @@
         <v>129965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>149</v>
@@ -5233,13 +5227,13 @@
         <v>165540</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5248,13 @@
         <v>555753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>545</v>
@@ -5269,13 +5263,13 @@
         <v>647966</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>1133</v>
@@ -5284,13 +5278,13 @@
         <v>1203719</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5352,13 @@
         <v>153173</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>356</v>
@@ -5373,13 +5367,13 @@
         <v>390800</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
@@ -5391,10 +5385,10 @@
         <v>225</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,10 +5403,10 @@
         <v>3241177</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>359</v>
@@ -5439,7 +5433,7 @@
         <v>6394919</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>363</v>
@@ -5501,7 +5495,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BA1362-62F7-4117-B7AC-EA1E8EFB17B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B96149E-7DA4-43EC-BAE9-AE5C528A1786}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5650,10 +5644,10 @@
         <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5662,13 +5656,13 @@
         <v>24724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -5677,13 +5671,13 @@
         <v>43582</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5692,13 @@
         <v>358821</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>195</v>
@@ -5713,13 +5707,13 @@
         <v>330233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
@@ -5728,13 +5722,13 @@
         <v>689054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5796,13 @@
         <v>17764</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5817,13 +5811,13 @@
         <v>25994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5832,13 +5826,13 @@
         <v>43759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5847,13 @@
         <v>410632</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>438</v>
@@ -5868,13 +5862,13 @@
         <v>473221</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>727</v>
@@ -5883,13 +5877,13 @@
         <v>883852</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>399</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5951,13 @@
         <v>32974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5972,13 +5966,13 @@
         <v>30633</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -5987,13 +5981,13 @@
         <v>63607</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>524278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H11" s="7">
         <v>802</v>
@@ -6023,13 +6017,13 @@
         <v>579814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>1318</v>
@@ -6038,13 +6032,13 @@
         <v>1104092</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6094,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6112,13 +6106,13 @@
         <v>53977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6127,13 +6121,13 @@
         <v>55003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -6142,13 +6136,13 @@
         <v>108980</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6157,13 @@
         <v>670013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>1059</v>
@@ -6178,28 +6172,28 @@
         <v>692258</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>1675</v>
       </c>
       <c r="N14" s="7">
-        <v>1362271</v>
+        <v>1362272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6235,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6267,13 +6261,13 @@
         <v>36781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -6282,13 +6276,13 @@
         <v>49276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -6297,13 +6291,13 @@
         <v>86057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6312,13 @@
         <v>563376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -6333,13 +6327,13 @@
         <v>547787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>1544</v>
@@ -6348,13 +6342,13 @@
         <v>1111163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,7 +6404,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6422,13 +6416,13 @@
         <v>47513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>438</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
         <v>138</v>
@@ -6437,13 +6431,13 @@
         <v>191241</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M19" s="7">
         <v>204</v>
@@ -6452,13 +6446,13 @@
         <v>238755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,16 +6464,16 @@
         <v>962</v>
       </c>
       <c r="D20" s="7">
-        <v>650242</v>
+        <v>650241</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H20" s="7">
         <v>1570</v>
@@ -6488,13 +6482,13 @@
         <v>835396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>2532</v>
@@ -6503,13 +6497,13 @@
         <v>1485637</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6515,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6577,13 +6571,13 @@
         <v>207867</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
         <v>383</v>
@@ -6592,13 +6586,13 @@
         <v>376872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>588</v>
@@ -6607,13 +6601,13 @@
         <v>584739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6622,13 @@
         <v>3177361</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>449</v>
       </c>
       <c r="H23" s="7">
         <v>4984</v>
@@ -6643,28 +6637,28 @@
         <v>3458709</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>8155</v>
       </c>
       <c r="N23" s="7">
-        <v>6636069</v>
+        <v>6636070</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6700,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6720,7 +6714,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA60F418-5FDB-4A58-B900-F40FFB65AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26237F9-EC38-44F1-ADE8-1E169DFB927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F7CB8E-54FF-45BE-9306-80CF9049BBCD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6EFF8557-0439-45FF-AE63-AD18762CCFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="523">
   <si>
     <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -191,1264 +191,1423 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con problemas de nervios, depresión o trastorno mental en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +2019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D75B6-5F07-4C34-869A-6D5696F8B588}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569E3B82-04EF-4C2B-A08E-C459683A0A1C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2288,46 +2447,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>20493</v>
+        <v>21608</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>32387</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>31236</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>48</v>
+      </c>
+      <c r="N10" s="7">
+        <v>53995</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>46</v>
-      </c>
-      <c r="N10" s="7">
-        <v>51730</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2339,10 +2498,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D11" s="7">
-        <v>618175</v>
+        <v>617060</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2351,37 +2510,37 @@
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7">
+        <v>629</v>
+      </c>
+      <c r="I11" s="7">
+        <v>657357</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>630</v>
-      </c>
-      <c r="I11" s="7">
-        <v>658508</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1274417</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="7">
-        <v>1225</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1276682</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2644,7 @@
         <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,10 +2659,10 @@
         <v>507482</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -2515,13 +2674,13 @@
         <v>486926</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>947</v>
@@ -2530,13 +2689,13 @@
         <v>994408</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2763,13 @@
         <v>15701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2619,13 +2778,13 @@
         <v>22670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2634,13 +2793,13 @@
         <v>38371</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2814,13 @@
         <v>371009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>373</v>
@@ -2670,13 +2829,13 @@
         <v>381316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -2685,13 +2844,13 @@
         <v>752325</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,55 +2906,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>19661</v>
+        <v>12360</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7">
+        <v>24311</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>40</v>
+      </c>
+      <c r="N19" s="7">
+        <v>36671</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>46</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47626</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>68</v>
-      </c>
-      <c r="N19" s="7">
-        <v>67287</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,49 +2963,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>501</v>
+        <v>289</v>
       </c>
       <c r="D20" s="7">
-        <v>482805</v>
+        <v>280223</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="7">
+        <v>345</v>
+      </c>
+      <c r="I20" s="7">
+        <v>318623</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="7">
+        <v>634</v>
+      </c>
+      <c r="N20" s="7">
+        <v>598846</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>615</v>
-      </c>
-      <c r="I20" s="7">
-        <v>629216</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1116</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1112021</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,10 +3014,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2870,10 +3029,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2885,10 +3044,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2902,55 +3061,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>89804</v>
+        <v>7301</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7">
+        <v>23315</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>28</v>
+      </c>
+      <c r="N22" s="7">
+        <v>30616</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7">
-        <v>149</v>
-      </c>
-      <c r="I22" s="7">
-        <v>153804</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="7">
-        <v>239</v>
-      </c>
-      <c r="N22" s="7">
-        <v>243608</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +3118,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3124</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7">
-        <v>3186740</v>
+        <v>202582</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="7">
+        <v>270</v>
+      </c>
+      <c r="I23" s="7">
+        <v>310593</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>482</v>
+      </c>
+      <c r="N23" s="7">
+        <v>513175</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="7">
-        <v>3148</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3225394</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6272</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6412132</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,63 +3169,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>91</v>
+      </c>
+      <c r="D25" s="7">
+        <v>90919</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="7">
+        <v>150</v>
+      </c>
+      <c r="I25" s="7">
+        <v>154955</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="7">
+        <v>241</v>
+      </c>
+      <c r="N25" s="7">
+        <v>245873</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3123</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3185624</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3147</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3224242</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6270</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6409868</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3079,8 +3394,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E8F9DC-0F16-42E7-A894-2CEC6DBC5617}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B98C22C-6BC6-4E84-A131-00F591C95D48}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3096,7 +3411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3203,13 +3518,13 @@
         <v>5620</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3218,13 +3533,13 @@
         <v>6922</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -3233,13 +3548,13 @@
         <v>12542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3569,13 @@
         <v>448526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3269,13 +3584,13 @@
         <v>423308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>854</v>
@@ -3284,13 +3599,13 @@
         <v>871834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3673,13 @@
         <v>9324</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3373,13 +3688,13 @@
         <v>18550</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -3388,13 +3703,13 @@
         <v>27873</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3724,13 @@
         <v>677763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>553</v>
@@ -3424,13 +3739,13 @@
         <v>591705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>1210</v>
@@ -3439,13 +3754,13 @@
         <v>1269469</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3828,13 @@
         <v>31593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3528,13 +3843,13 @@
         <v>33707</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -3543,13 +3858,13 @@
         <v>65299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3879,13 @@
         <v>650270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -3579,13 +3894,13 @@
         <v>677143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -3594,13 +3909,13 @@
         <v>1327413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3983,13 @@
         <v>18535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3683,13 +3998,13 @@
         <v>33075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3698,13 +4013,13 @@
         <v>51610</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +4034,13 @@
         <v>596082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -3734,13 +4049,13 @@
         <v>583124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>1041</v>
@@ -3749,13 +4064,13 @@
         <v>1179206</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +4126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3823,13 +4138,13 @@
         <v>14095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -3838,13 +4153,13 @@
         <v>25075</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3853,13 +4168,13 @@
         <v>39170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +4189,13 @@
         <v>415334</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>382</v>
@@ -3889,13 +4204,13 @@
         <v>422725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -3904,13 +4219,13 @@
         <v>838059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,55 +4281,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>26051</v>
+        <v>13755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>58234</v>
+        <v>33319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>84286</v>
+        <v>47073</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4338,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="D20" s="7">
-        <v>533586</v>
+        <v>296031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
-        <v>638</v>
+        <v>310</v>
       </c>
       <c r="I20" s="7">
-        <v>684741</v>
+        <v>320677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>1117</v>
+        <v>578</v>
       </c>
       <c r="N20" s="7">
-        <v>1218326</v>
+        <v>616709</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4404,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4419,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4121,55 +4436,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>105218</v>
+        <v>12297</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>175563</v>
+        <v>24916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>280781</v>
+        <v>37213</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3110</v>
+        <v>211</v>
       </c>
       <c r="D23" s="7">
-        <v>3321561</v>
+        <v>237554</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
-        <v>3131</v>
+        <v>328</v>
       </c>
       <c r="I23" s="7">
-        <v>3382746</v>
+        <v>364063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
-        <v>6241</v>
+        <v>539</v>
       </c>
       <c r="N23" s="7">
-        <v>6704307</v>
+        <v>601617</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,63 +4544,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>99</v>
+      </c>
+      <c r="D25" s="7">
+        <v>105218</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>175563</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" s="7">
+        <v>266</v>
+      </c>
+      <c r="N25" s="7">
+        <v>280781</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3110</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3321561</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3131</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3382746</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6241</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6704307</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4298,8 +4769,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF321E1-07B6-40FA-832A-EF1E9DDA584B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED08D135-1742-4817-B54B-B1B704BFFEDA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4315,7 +4786,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4422,13 +4893,13 @@
         <v>10682</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4437,13 +4908,13 @@
         <v>16008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4452,13 +4923,13 @@
         <v>26690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4944,13 @@
         <v>408781</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -4488,13 +4959,13 @@
         <v>379747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>772</v>
@@ -4503,13 +4974,13 @@
         <v>788528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +5048,13 @@
         <v>13657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4592,13 +5063,13 @@
         <v>19470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4607,13 +5078,13 @@
         <v>33127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +5099,13 @@
         <v>576839</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -4643,13 +5114,13 @@
         <v>544074</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>1113</v>
@@ -4658,13 +5129,13 @@
         <v>1120913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +5203,13 @@
         <v>25290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4747,13 +5218,13 @@
         <v>52634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4762,13 +5233,13 @@
         <v>77924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +5254,13 @@
         <v>643807</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>610</v>
@@ -4798,13 +5269,13 @@
         <v>608752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -4813,13 +5284,13 @@
         <v>1252559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5358,13 @@
         <v>34082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -4902,13 +5373,13 @@
         <v>79496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4917,13 +5388,13 @@
         <v>113578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5409,13 @@
         <v>611966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>529</v>
@@ -4953,13 +5424,13 @@
         <v>569581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>1078</v>
@@ -4968,13 +5439,13 @@
         <v>1181547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,7 +5501,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5042,13 +5513,13 @@
         <v>33888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -5057,13 +5528,13 @@
         <v>93228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5072,13 +5543,13 @@
         <v>127115</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5564,13 @@
         <v>444030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>350</v>
@@ -5108,13 +5579,13 @@
         <v>403621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>745</v>
@@ -5123,13 +5594,13 @@
         <v>847652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,55 +5656,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>35575</v>
+        <v>13704</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>129965</v>
+        <v>62072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="M19" s="7">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="N19" s="7">
-        <v>165540</v>
+        <v>75776</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5713,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>588</v>
+        <v>311</v>
       </c>
       <c r="D20" s="7">
-        <v>555753</v>
+        <v>320626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="I20" s="7">
-        <v>647966</v>
+        <v>315690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
-        <v>1133</v>
+        <v>607</v>
       </c>
       <c r="N20" s="7">
-        <v>1203719</v>
+        <v>636316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5308,10 +5779,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5323,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5340,55 +5811,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>153173</v>
+        <v>21871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="H22" s="7">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>390800</v>
+        <v>67893</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
-        <v>505</v>
+        <v>77</v>
       </c>
       <c r="N22" s="7">
-        <v>543973</v>
+        <v>89764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,49 +5868,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3082</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7">
-        <v>3241177</v>
+        <v>235127</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
-        <v>2982</v>
+        <v>249</v>
       </c>
       <c r="I23" s="7">
-        <v>3153742</v>
+        <v>332276</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="M23" s="7">
-        <v>6064</v>
+        <v>526</v>
       </c>
       <c r="N23" s="7">
-        <v>6394919</v>
+        <v>567403</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,63 +5919,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>149</v>
+      </c>
+      <c r="D25" s="7">
+        <v>153173</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="7">
+        <v>356</v>
+      </c>
+      <c r="I25" s="7">
+        <v>390800</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M25" s="7">
+        <v>505</v>
+      </c>
+      <c r="N25" s="7">
+        <v>543973</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3082</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3241177</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2982</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3153742</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6064</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6394919</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5517,8 +6144,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B96149E-7DA4-43EC-BAE9-AE5C528A1786}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F76AAD5-FE70-4499-AEEC-29E2F233F6D3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5534,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5635,49 +6262,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>18858</v>
+        <v>6186</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>24724</v>
+        <v>7834</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>43582</v>
+        <v>14020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>37</v>
+        <v>416</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,49 +6313,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>358821</v>
+        <v>393801</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="7">
+        <v>203</v>
+      </c>
+      <c r="I5" s="7">
+        <v>305366</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5" s="7">
         <v>373</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="7">
-        <v>195</v>
-      </c>
-      <c r="I5" s="7">
-        <v>330233</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="M5" s="7">
-        <v>359</v>
-      </c>
       <c r="N5" s="7">
-        <v>689054</v>
+        <v>699167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>45</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,7 +6367,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5755,7 +6382,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5770,7 +6397,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5790,49 +6417,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>17764</v>
+        <v>10001</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>25994</v>
+        <v>14579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>43759</v>
+        <v>24581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>431</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,49 +6468,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D8" s="7">
-        <v>410632</v>
+        <v>413546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="H8" s="7">
+        <v>447</v>
+      </c>
+      <c r="I8" s="7">
+        <v>497514</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" s="7">
+        <v>742</v>
+      </c>
+      <c r="N8" s="7">
+        <v>911059</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="I8" s="7">
-        <v>473221</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="M8" s="7">
-        <v>727</v>
-      </c>
-      <c r="N8" s="7">
-        <v>883852</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +6522,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5910,7 +6537,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5925,7 +6552,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5945,49 +6572,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>32974</v>
+        <v>18335</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>30633</v>
+        <v>15784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>397</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>63607</v>
+        <v>34118</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,49 +6623,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D11" s="7">
-        <v>524278</v>
+        <v>518003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="H11" s="7">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="I11" s="7">
-        <v>579814</v>
+        <v>576218</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>451</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>404</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="M11" s="7">
-        <v>1318</v>
+        <v>1352</v>
       </c>
       <c r="N11" s="7">
-        <v>1104092</v>
+        <v>1094222</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6677,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6065,7 +6692,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6080,7 +6707,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6100,49 +6727,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>53977</v>
+        <v>29896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="H13" s="7">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>55003</v>
+        <v>35459</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>108980</v>
+        <v>65354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,49 +6778,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="D14" s="7">
-        <v>670013</v>
+        <v>857890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>1059</v>
+        <v>1082</v>
       </c>
       <c r="I14" s="7">
-        <v>692258</v>
+        <v>677422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
-        <v>1675</v>
+        <v>1717</v>
       </c>
       <c r="N14" s="7">
-        <v>1362272</v>
+        <v>1535313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6832,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6220,7 +6847,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6235,7 +6862,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6249,55 +6876,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>36781</v>
+        <v>22236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>49276</v>
+        <v>35024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>86057</v>
+        <v>57261</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>429</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,49 +6933,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="D17" s="7">
-        <v>563376</v>
+        <v>538998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H17" s="7">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="I17" s="7">
-        <v>547787</v>
+        <v>512881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
-        <v>1544</v>
+        <v>1575</v>
       </c>
       <c r="N17" s="7">
-        <v>1111163</v>
+        <v>1051878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6987,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6375,7 +7002,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6390,7 +7017,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6404,55 +7031,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>47513</v>
+        <v>12356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>191241</v>
+        <v>230594</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="M19" s="7">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>238755</v>
+        <v>242950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,49 +7088,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>962</v>
+        <v>552</v>
       </c>
       <c r="D20" s="7">
-        <v>650241</v>
+        <v>355809</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="H20" s="7">
-        <v>1570</v>
+        <v>778</v>
       </c>
       <c r="I20" s="7">
-        <v>835396</v>
+        <v>377774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
-        <v>2532</v>
+        <v>1330</v>
       </c>
       <c r="N20" s="7">
-        <v>1485637</v>
+        <v>733583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,10 +7139,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6527,10 +7154,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6542,10 +7169,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6559,55 +7186,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>207867</v>
+        <v>14112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
-        <v>383</v>
+        <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>376872</v>
+        <v>24443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
-        <v>588</v>
+        <v>71</v>
       </c>
       <c r="N22" s="7">
-        <v>584739</v>
+        <v>38555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,49 +7243,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3171</v>
+        <v>436</v>
       </c>
       <c r="D23" s="7">
-        <v>3177361</v>
+        <v>268647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7">
-        <v>4984</v>
+        <v>832</v>
       </c>
       <c r="I23" s="7">
-        <v>3458709</v>
+        <v>401388</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
-        <v>8155</v>
+        <v>1268</v>
       </c>
       <c r="N23" s="7">
-        <v>6636070</v>
+        <v>670035</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,63 +7294,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>120</v>
+      </c>
+      <c r="D25" s="7">
+        <v>113122</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H25" s="7">
+        <v>266</v>
+      </c>
+      <c r="I25" s="7">
+        <v>363717</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M25" s="7">
+        <v>386</v>
+      </c>
+      <c r="N25" s="7">
+        <v>476840</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3256</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3346695</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5101</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3348563</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8357</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6695257</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
